--- a/Mifos Automation Excels/Client/4200-RBI-EI-DB-DL-REC-FEE-RNI-FFC-SAR-FFROP-DAILY-1-CTRFD-MD-TR-1-ONTIME-PERIODIC-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/4200-RBI-EI-DB-DL-REC-FEE-RNI-FFC-SAR-FFROP-DAILY-1-CTRFD-MD-TR-1-ONTIME-PERIODIC-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="6"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -208,7 +213,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -369,6 +374,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -416,7 +424,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -449,9 +457,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -484,6 +509,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -818,10 +860,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -838,12 +880,13 @@
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -883,17 +926,18 @@
       <c r="M1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="8">
@@ -918,9 +962,10 @@
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -958,14 +1003,15 @@
       <c r="M3" s="3">
         <v>0</v>
       </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N3" s="3"/>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1001,14 +1047,15 @@
       <c r="M4" s="3">
         <v>0</v>
       </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
+      <c r="N4" s="3"/>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1044,14 +1091,15 @@
       <c r="M5" s="3">
         <v>0</v>
       </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
+      <c r="N5" s="3"/>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1087,14 +1135,15 @@
       <c r="M6" s="3">
         <v>0</v>
       </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3">
+      <c r="N6" s="3"/>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1130,14 +1179,15 @@
       <c r="M7" s="3">
         <v>0</v>
       </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
+      <c r="N7" s="3"/>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1173,14 +1223,15 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="N8" s="3"/>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1216,14 +1267,15 @@
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="N9" s="3"/>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1259,14 +1311,15 @@
       <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="N10" s="3"/>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1302,14 +1355,15 @@
       <c r="M11" s="3">
         <v>0</v>
       </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1345,14 +1399,15 @@
       <c r="M12" s="3">
         <v>0</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="N12" s="3"/>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1388,14 +1443,15 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
+      <c r="N13" s="3"/>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1431,10 +1487,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="N14" s="3"/>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>903.49</v>
       </c>
     </row>
@@ -1945,7 +2002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/4200-RBI-EI-DB-DL-REC-FEE-RNI-FFC-SAR-FFROP-DAILY-1-CTRFD-MD-TR-1-ONTIME-PERIODIC-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/4200-RBI-EI-DB-DL-REC-FEE-RNI-FFC-SAR-FFROP-DAILY-1-CTRFD-MD-TR-1-ONTIME-PERIODIC-Makerepayment1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -213,8 +208,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -241,11 +236,6 @@
     </font>
     <font>
       <i/>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
@@ -315,12 +305,12 @@
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -350,9 +340,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -424,7 +411,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,26 +444,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -509,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -738,10 +691,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -850,9 +803,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -862,7 +812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -1751,31 +1701,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1786,7 +1736,7 @@
       <c r="B2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>42005</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1812,7 +1762,7 @@
       <c r="B3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>42005</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -1857,31 +1807,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1907,8 +1857,8 @@
       <c r="G2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16" t="s">
+      <c r="H2" s="15"/>
+      <c r="I2" s="15" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1934,8 +1884,8 @@
       <c r="G3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16" t="s">
+      <c r="H3" s="15"/>
+      <c r="I3" s="15" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1961,8 +1911,8 @@
       <c r="G4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" s="15" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1988,10 +1938,10 @@
       <c r="G5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="16"/>
+      <c r="I5" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2020,31 +1970,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2055,7 +2005,7 @@
       <c r="B2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>42036</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -2070,10 +2020,10 @@
       <c r="G2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="17"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
@@ -2082,7 +2032,7 @@
       <c r="B3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>42036</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -2097,8 +2047,8 @@
       <c r="G3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17" t="s">
+      <c r="H3" s="16"/>
+      <c r="I3" s="16" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2109,7 +2059,7 @@
       <c r="B4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>42036</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -2124,10 +2074,10 @@
       <c r="G4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="17"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
@@ -2136,7 +2086,7 @@
       <c r="B5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>42036</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -2151,14 +2101,14 @@
       <c r="G5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17" t="s">
+      <c r="H5" s="16"/>
+      <c r="I5" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
@@ -2167,7 +2117,7 @@
       <c r="B7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>42064</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -2182,10 +2132,10 @@
       <c r="G7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="I7" s="17"/>
+      <c r="I7" s="16"/>
     </row>
     <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -2194,7 +2144,7 @@
       <c r="B8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>42064</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -2209,14 +2159,14 @@
       <c r="G8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17" t="s">
+      <c r="H8" s="16"/>
+      <c r="I8" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -2225,7 +2175,7 @@
       <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>42095</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -2240,10 +2190,10 @@
       <c r="G10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="17"/>
+      <c r="I10" s="16"/>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -2252,7 +2202,7 @@
       <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>42095</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -2267,8 +2217,8 @@
       <c r="G11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17" t="s">
+      <c r="H11" s="16"/>
+      <c r="I11" s="16" t="s">
         <v>60</v>
       </c>
     </row>
